--- a/Shopping List 1.xlsx
+++ b/Shopping List 1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Player\Documents\GitHub\AERO3760-Space-Engineering-2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -631,7 +626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -641,26 +636,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.5" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -692,7 +687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -725,12 +720,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -756,7 +751,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -764,7 +759,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -788,7 +783,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5">
@@ -796,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -817,7 +812,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5">
@@ -825,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -846,14 +841,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="C17" s="4"/>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
@@ -874,14 +869,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="C19" s="4"/>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -911,14 +906,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="C21" s="4"/>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -948,7 +943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="C23" s="4"/>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
@@ -958,7 +953,7 @@
       <c r="H23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -983,7 +978,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="C25" s="4"/>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
@@ -993,7 +988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
@@ -1017,7 +1012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="C27" s="4"/>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
@@ -1027,7 +1022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
@@ -1057,14 +1052,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="C29" s="4"/>
       <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -1091,14 +1086,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="C31" s="4"/>
       <c r="D31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1114,14 +1109,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="C33" s="4"/>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1137,14 +1132,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="C35" s="4"/>
       <c r="D35" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1154,14 +1149,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="C37" s="4"/>
       <c r="D37" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1174,14 +1169,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="C39" s="4"/>
       <c r="D39" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
@@ -1202,13 +1197,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="D41" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1232,13 +1227,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="D43" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1262,13 +1257,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="D45" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1286,7 +1281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="D47" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1295,13 +1290,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="D48" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -1319,7 +1314,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
@@ -1333,6 +1328,11 @@
     <hyperlink ref="E30" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>